--- a/schedule_quant.xlsx
+++ b/schedule_quant.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djhocking/Documents/Teaching/Frostburg/Quant_Vert_Pop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="0" windowWidth="15160" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="10440" yWindow="460" windowWidth="21800" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
   <si>
     <t>lecture</t>
   </si>
@@ -42,9 +50,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>LAST DAY OF CLASSES</t>
-  </si>
-  <si>
     <t>FINAL?</t>
   </si>
   <si>
@@ -136,13 +141,28 @@
   </si>
   <si>
     <t>Fish or Small Mammals?</t>
+  </si>
+  <si>
+    <t>EXAM</t>
+  </si>
+  <si>
+    <t>GRAD PROJECT</t>
+  </si>
+  <si>
+    <t>Work on take home final</t>
+  </si>
+  <si>
+    <t>Assign Take Home Final</t>
+  </si>
+  <si>
+    <t>LAST DAY OF CLASSES - FINAL DUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +182,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,9 +217,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -200,6 +230,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,28 +562,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="6" width="30.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>42975</v>
       </c>
@@ -559,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>42977</v>
       </c>
@@ -573,18 +608,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42979</v>
@@ -596,12 +631,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f>B2+7</f>
@@ -614,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B47" si="0">B3+7</f>
         <v>42984</v>
@@ -626,12 +661,12 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -644,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>42989</v>
@@ -662,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>42991</v>
@@ -677,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -695,13 +730,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>42996</v>
@@ -713,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>42998</v>
@@ -725,9 +760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -740,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>43003</v>
@@ -758,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>43005</v>
@@ -770,9 +805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -785,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>43010</v>
@@ -800,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>43012</v>
@@ -812,9 +847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -827,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>43017</v>
@@ -842,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>43019</v>
@@ -854,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>43021</v>
@@ -866,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>43024</v>
@@ -878,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>43026</v>
@@ -889,8 +924,11 @@
       <c r="D24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>43028</v>
@@ -902,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>43031</v>
@@ -914,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>43033</v>
@@ -926,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>43035</v>
@@ -938,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>43038</v>
@@ -950,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>43040</v>
@@ -962,9 +1000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -977,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>43045</v>
@@ -989,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>43047</v>
@@ -1001,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>43049</v>
@@ -1013,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>43052</v>
@@ -1025,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>43054</v>
@@ -1037,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>43056</v>
@@ -1049,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>43059</v>
@@ -1060,10 +1098,13 @@
       <c r="D38" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -1076,9 +1117,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -1091,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>43066</v>
@@ -1103,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>43068</v>
@@ -1115,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -1126,8 +1167,11 @@
       <c r="D43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>43073</v>
@@ -1138,8 +1182,11 @@
       <c r="D44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43075</v>
@@ -1151,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>43077</v>
@@ -1162,8 +1209,11 @@
       <c r="D46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>43080</v>
@@ -1174,11 +1224,11 @@
       <c r="D47" t="s">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <f>B45+7</f>
         <v>43082</v>
@@ -1186,512 +1236,507 @@
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="E48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <f>B46+7</f>
         <v>43084</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <f>B50+1</f>
         <v>43085</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <f t="shared" ref="B52:B95" si="1">B51+1</f>
         <v>43086</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>43087</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="1"/>
-        <v>43087</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>43088</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" si="1"/>
-        <v>43088</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>43089</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" si="1"/>
-        <v>43089</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>43090</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="1"/>
-        <v>43090</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>43091</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>43092</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="1"/>
-        <v>43092</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>43093</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>43093</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <f t="shared" si="1"/>
+        <v>43094</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="1">
-        <f t="shared" si="1"/>
-        <v>43094</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <f t="shared" si="1"/>
+        <v>43095</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>43095</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <f t="shared" si="1"/>
+        <v>43096</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="1">
-        <f t="shared" si="1"/>
-        <v>43096</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <f t="shared" si="1"/>
+        <v>43097</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="1">
-        <f t="shared" si="1"/>
-        <v>43097</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>43098</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <f t="shared" si="1"/>
+        <v>43099</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="1">
-        <f t="shared" si="1"/>
-        <v>43099</v>
-      </c>
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <f t="shared" si="1"/>
+        <v>43100</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>43100</v>
-      </c>
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <f t="shared" si="1"/>
+        <v>43101</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="B67" s="1">
-        <f t="shared" si="1"/>
-        <v>43101</v>
-      </c>
-      <c r="C67" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>43102</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" si="1"/>
-        <v>43102</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>43103</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="1"/>
-        <v>43103</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>43104</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" si="1"/>
-        <v>43104</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>43105</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>43106</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="1">
-        <f t="shared" si="1"/>
-        <v>43106</v>
-      </c>
-      <c r="C72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>43107</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="1">
-        <f t="shared" si="1"/>
-        <v>43107</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>43108</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" s="1">
-        <f t="shared" si="1"/>
-        <v>43108</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>43109</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="1">
-        <f t="shared" si="1"/>
-        <v>43109</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>43110</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="1">
-        <f t="shared" si="1"/>
-        <v>43110</v>
-      </c>
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>43111</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="1">
-        <f t="shared" si="1"/>
-        <v>43111</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78" s="1">
         <f>B77+1</f>
         <v>43112</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>43113</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" si="1"/>
-        <v>43113</v>
-      </c>
-      <c r="C79" s="1" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>43114</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="1">
-        <f t="shared" si="1"/>
-        <v>43114</v>
-      </c>
-      <c r="C80" s="1" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>43115</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" si="1"/>
-        <v>43115</v>
-      </c>
-      <c r="C81" s="1" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>43116</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="B82" s="1">
-        <f t="shared" si="1"/>
-        <v>43116</v>
-      </c>
-      <c r="C82" s="1" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>43117</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="B83" s="1">
-        <f t="shared" si="1"/>
-        <v>43117</v>
-      </c>
-      <c r="C83" s="1" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>43118</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="B84" s="1">
-        <f t="shared" si="1"/>
-        <v>43118</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>43119</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>43120</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="B86" s="1">
-        <f t="shared" si="1"/>
-        <v>43120</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>43121</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="B87" s="1">
-        <f t="shared" si="1"/>
-        <v>43121</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>43122</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="B88" s="1">
-        <f t="shared" si="1"/>
-        <v>43122</v>
-      </c>
-      <c r="C88" s="1" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>43123</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="B89" s="1">
-        <f t="shared" si="1"/>
-        <v>43123</v>
-      </c>
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>43124</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="B90" s="1">
-        <f t="shared" si="1"/>
-        <v>43124</v>
-      </c>
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>43125</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="B91" s="1">
-        <f t="shared" si="1"/>
-        <v>43125</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>43126</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>43127</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="B93" s="1">
-        <f t="shared" si="1"/>
-        <v>43127</v>
-      </c>
-      <c r="C93" s="1" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>43128</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="B94" s="1">
-        <f t="shared" si="1"/>
-        <v>43128</v>
-      </c>
-      <c r="C94" s="1" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>43129</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="B95" s="1">
-        <f t="shared" si="1"/>
-        <v>43129</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>